--- a/mapping/BAO_VIMMP.xlsx
+++ b/mapping/BAO_VIMMP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>BAO_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>VIMMP_DESC</t>
   </si>
   <si>
+    <t>VIMMP_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/PATO_0000918</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_47867</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/CLO_0000031</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0003117</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>{'label': 'indicator', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_47867'}</t>
   </si>
   <si>
+    <t>{'label': 'cell', 'prefLabel': None, 'altLabel': None, 'name': 'CLO_0000031'}</t>
+  </si>
+  <si>
     <t>{'label': 'function', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003117'}</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
     <t>https://purl.vimmp.eu/semantics/mmto/mmto.ttl#indicator</t>
   </si>
   <si>
+    <t>https://purl.vimmp.eu/semantics/viso/viso-continuum.ttl#cell</t>
+  </si>
+  <si>
     <t>https://purl.vimmp.eu/semantics/vov/vov.ttl#function</t>
   </si>
   <si>
@@ -148,6 +160,9 @@
     <t>{'name': 'indicator'}</t>
   </si>
   <si>
+    <t>{'name': 'cell'}</t>
+  </si>
+  <si>
     <t>{'name': 'function'}</t>
   </si>
   <si>
@@ -170,6 +185,9 @@
   </si>
   <si>
     <t>{'name': 'software'}</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -540,13 +558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,209 +577,268 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -774,22 +851,24 @@
     <hyperlink ref="D4" r:id="rId6" location="label"/>
     <hyperlink ref="B5" r:id="rId7"/>
     <hyperlink ref="D5" r:id="rId8" location="indicator"/>
-    <hyperlink ref="B6" r:id="rId9" location="BAO_0003117"/>
-    <hyperlink ref="D6" r:id="rId10" location="function"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="D7" r:id="rId12" location="time"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10" location="cell"/>
+    <hyperlink ref="B7" r:id="rId11" location="BAO_0003117"/>
+    <hyperlink ref="D7" r:id="rId12" location="function"/>
     <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="D8" r:id="rId14" location="focus"/>
-    <hyperlink ref="B9" r:id="rId15" location="BAO_0000514"/>
-    <hyperlink ref="D9" r:id="rId16" location="Array"/>
-    <hyperlink ref="B10" r:id="rId17" location="BAO_0002057"/>
-    <hyperlink ref="D10" r:id="rId18" location="Engineered"/>
-    <hyperlink ref="B11" r:id="rId19" location="BAO_0002093"/>
-    <hyperlink ref="D11" r:id="rId20" location="carrier"/>
-    <hyperlink ref="B12" r:id="rId21" location="BAO_0003067"/>
-    <hyperlink ref="D12" r:id="rId22" location="product"/>
-    <hyperlink ref="B13" r:id="rId23" location="BAO_0003119"/>
-    <hyperlink ref="D13" r:id="rId24" location="software"/>
+    <hyperlink ref="D8" r:id="rId14" location="time"/>
+    <hyperlink ref="B9" r:id="rId15"/>
+    <hyperlink ref="D9" r:id="rId16" location="focus"/>
+    <hyperlink ref="B10" r:id="rId17" location="BAO_0000514"/>
+    <hyperlink ref="D10" r:id="rId18" location="Array"/>
+    <hyperlink ref="B11" r:id="rId19" location="BAO_0002057"/>
+    <hyperlink ref="D11" r:id="rId20" location="Engineered"/>
+    <hyperlink ref="B12" r:id="rId21" location="BAO_0002093"/>
+    <hyperlink ref="D12" r:id="rId22" location="carrier"/>
+    <hyperlink ref="B13" r:id="rId23" location="BAO_0003067"/>
+    <hyperlink ref="D13" r:id="rId24" location="product"/>
+    <hyperlink ref="B14" r:id="rId25" location="BAO_0003119"/>
+    <hyperlink ref="D14" r:id="rId26" location="software"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
